--- a/Developper review.xlsx
+++ b/Developper review.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allau\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5AE240F6-F656-499B-AD8A-229D846ED7BF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E5E34730-9A5B-49BC-8E55-4E2C00C4A49C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="5" xr2:uid="{28D079A3-9CDB-4D6C-A709-65872FE43078}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{28D079A3-9CDB-4D6C-A709-65872FE43078}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tools" sheetId="7" r:id="rId1"/>
-    <sheet name="Enviroment" sheetId="8" r:id="rId2"/>
-    <sheet name="Page1" sheetId="3" r:id="rId3"/>
+    <sheet name="App page" sheetId="3" r:id="rId1"/>
+    <sheet name="Tools" sheetId="7" r:id="rId2"/>
+    <sheet name="Enviroment" sheetId="8" r:id="rId3"/>
     <sheet name="API namespace" sheetId="5" r:id="rId4"/>
     <sheet name="DB dirgram" sheetId="6" r:id="rId5"/>
     <sheet name="1" sheetId="4" r:id="rId6"/>
@@ -3192,73 +3192,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054FCFD0-56A9-46A5-8550-F68327451C8C}">
-  <dimension ref="A2:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="98" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="98" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="103" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="98" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B82B4E-6362-4A2A-99D3-D7443C425C74}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74326DC-BD0B-42C6-8C36-579F6E0A54C2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4351,6 +4293,64 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054FCFD0-56A9-46A5-8550-F68327451C8C}">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B82B4E-6362-4A2A-99D3-D7443C425C74}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F6A16D-0949-4E88-BBA3-C9BC4E10495A}">
   <dimension ref="A2:B6"/>
@@ -4436,7 +4436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58757198-EBD4-4A51-B915-184C9DE1AE94}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
